--- a/AMC_examples_data/AMC_examples_data_ex9.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E6DEA6-D0A0-49E3-A117-5101E834CD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A38C1A6-7D57-4BB9-AE69-72B591ECCF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AMC_examples_data/AMC_examples_data_ex9.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A38C1A6-7D57-4BB9-AE69-72B591ECCF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A742CF62-BF6D-4656-B812-0FD5737A470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
+    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>frame_h</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>.\sources\VQ_sample_432x240_Coded_8bit.yuv</t>
+  </si>
+  <si>
+    <t>VQ_best</t>
+  </si>
+  <si>
+    <t>comp_offs_x</t>
+  </si>
+  <si>
+    <t>comp_offs_y</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F28914-79CE-4C5A-92B2-E41C9BEF8F7E}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,9 +468,12 @@
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="41.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +528,17 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -575,8 +596,17 @@
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>89</v>
+      </c>
+      <c r="V2">
+        <v>203</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -598,8 +628,14 @@
       <c r="R3">
         <v>16</v>
       </c>
+      <c r="U3">
+        <v>88</v>
+      </c>
+      <c r="V3">
+        <v>204</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,12 +658,12 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/AMC_examples_data/AMC_examples_data_ex9.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A742CF62-BF6D-4656-B812-0FD5737A470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1F4BC-B0D0-4AAA-8884-7C08E432FC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
+    <workbookView xWindow="15885" yWindow="5895" windowWidth="15375" windowHeight="7965" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>frame_h</t>
   </si>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t>VQ_best</t>
-  </si>
-  <si>
-    <t>comp_offs_x</t>
-  </si>
-  <si>
-    <t>comp_offs_y</t>
   </si>
 </sst>
 </file>
@@ -455,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F28914-79CE-4C5A-92B2-E41C9BEF8F7E}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +467,7 @@
     <col min="22" max="22" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -531,14 +525,8 @@
       <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,25 +561,25 @@
         <v>19</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="N2">
-        <v>-64</v>
+        <v>-80</v>
       </c>
       <c r="O2">
-        <v>-105</v>
+        <v>80</v>
       </c>
       <c r="P2">
-        <v>-91</v>
+        <v>-240</v>
       </c>
       <c r="Q2">
-        <v>-24</v>
+        <v>16</v>
       </c>
       <c r="R2">
-        <v>29</v>
+        <v>-32</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -599,14 +587,8 @@
       <c r="T2">
         <v>2</v>
       </c>
-      <c r="U2">
-        <v>89</v>
-      </c>
-      <c r="V2">
-        <v>203</v>
-      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -628,42 +610,18 @@
       <c r="R3">
         <v>16</v>
       </c>
-      <c r="U3">
-        <v>88</v>
-      </c>
-      <c r="V3">
-        <v>204</v>
-      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>-16</v>
-      </c>
-      <c r="N4">
-        <v>-80</v>
-      </c>
-      <c r="O4">
-        <v>80</v>
-      </c>
-      <c r="P4">
-        <v>-240</v>
-      </c>
-      <c r="Q4">
-        <v>16</v>
-      </c>
-      <c r="R4">
-        <v>-32</v>
-      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/AMC_examples_data/AMC_examples_data_ex9.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex9.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1F4BC-B0D0-4AAA-8884-7C08E432FC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BCC5AA-BB75-4550-BACC-2521BC71B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15885" yWindow="5895" windowWidth="15375" windowHeight="7965" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
+    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F28914-79CE-4C5A-92B2-E41C9BEF8F7E}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>

--- a/AMC_examples_data/AMC_examples_data_ex9.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex9.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BCC5AA-BB75-4550-BACC-2521BC71B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4613ABF-88C8-4713-B943-84B7346F7F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -452,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F28914-79CE-4C5A-92B2-E41C9BEF8F7E}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
